--- a/root/eindwerk/planning.xlsx
+++ b/root/eindwerk/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degroote.medric\Documents\GitHub\eindewerk\root\eindwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED5035F-1F4F-494B-8ED2-D27FA6A0D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFF44C3-4C9E-40D6-94AC-E132D13C45A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08EF1DFA-B98D-46D9-9708-2D2A3464ACE5}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{08EF1DFA-B98D-46D9-9708-2D2A3464ACE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>february</t>
+  </si>
+  <si>
+    <t>maart</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>mei</t>
+  </si>
+  <si>
+    <t>initiatiefase</t>
+  </si>
+  <si>
+    <t>definitiefase</t>
+  </si>
+  <si>
+    <t>ontwerpfase</t>
+  </si>
+  <si>
+    <t>uitvoeringsfase</t>
+  </si>
+  <si>
+    <t>html paginas</t>
+  </si>
+  <si>
+    <t>css paginas</t>
+  </si>
+  <si>
+    <t>databank maken</t>
+  </si>
+  <si>
+    <t>php met databank connecteren</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>testfase</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -44,18 +94,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -64,8 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -380,14 +450,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FCFE76-CDDF-498E-969F-6364CBC3B944}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="4"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>